--- a/Pythonscripts/testdatas/institution_data.xlsx
+++ b/Pythonscripts/testdatas/institution_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>机构名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,22 @@
   </si>
   <si>
     <t>3720 0550 1018 1201 8730 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,75 +443,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18701762172</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>18701762172</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>18701762172</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Pythonscripts/testdatas/institution_data.xlsx
+++ b/Pythonscripts/testdatas/institution_data.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>机构名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,39 +50,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深圳市前海南方鼎程保理有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0000000651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3720 0550 1018 1201 8730 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>iqunxing1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0000014525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构测试0711183912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3110 2100 0107 1006 391</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,136 +427,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>18701762172</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>18701762172</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>18701762172</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>18701762172</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
